--- a/Hybrid Solution Convergence V4.0.xlsx
+++ b/Hybrid Solution Convergence V4.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local disk\Virtusa\Convergence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88068D0-1FED-483E-B301-F427FEBCFFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB26E5B-53C6-4820-AC13-2619EFFA080C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <author>Anandavally Perumal</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="268">
   <si>
     <t>Negotiation Skills</t>
   </si>
@@ -590,9 +590,6 @@
   </si>
   <si>
     <t>No SQL Databases</t>
-  </si>
-  <si>
-    <t>Security - Identity Management, SSO, oAuth, Cookies, JWT</t>
   </si>
   <si>
     <t>Estimation Techniques</t>
@@ -1139,28 +1136,73 @@
     <t>26/08/2020 to 27/08/2020</t>
   </si>
   <si>
-    <t>28/08/2020 to 01/08/2020</t>
-  </si>
-  <si>
     <t>02/09/2020 to 04/09/2020</t>
   </si>
   <si>
-    <t>07/09/2020 to 09/09/2020</t>
-  </si>
-  <si>
-    <t>11/09/2020 to 15/09/2020</t>
-  </si>
-  <si>
-    <t>16/09/2020 to 18/09/2020</t>
-  </si>
-  <si>
-    <t>21/09/2020 to 23/09/2020</t>
-  </si>
-  <si>
-    <t>24/09/2020 to 25/09/2020</t>
-  </si>
-  <si>
-    <t>28/09/2020 to 01/10/2020</t>
+    <t>28/08/2020 to 01/09/2020</t>
+  </si>
+  <si>
+    <t>07/09/2020 to 11/09/2020,14,09/2020,16/09/2020,18/09/2020,21/09/2020</t>
+  </si>
+  <si>
+    <t>11/11/2020 and 13/11/2020</t>
+  </si>
+  <si>
+    <t>16/11/2020 and 18/11/2020</t>
+  </si>
+  <si>
+    <t>20/11/2020 and 23/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020 and 27/11/2020</t>
+  </si>
+  <si>
+    <t>30/11/2020,01/11/2020,04/12/2020,08/12/2020,09/12/2020,11/12/2020,14/12/2020 and 16/12/2020</t>
+  </si>
+  <si>
+    <t>25/09/2020,28/09/2020 and 30/09/2020</t>
+  </si>
+  <si>
+    <t>03/11/2020,04/11/2020,06/11/2020 and 09/11/2020</t>
+  </si>
+  <si>
+    <t>18/12/2020,21/12/2020,23/12/2020 and 24/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Study </t>
+  </si>
+  <si>
+    <t>First week of Jan 2021</t>
+  </si>
+  <si>
+    <t>Machine Learning Overview - Introduction, Popular Models and Use Cases, Tooling and Assessment -2</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>07/10/2020,09/10/2020 and 12/09/2020</t>
+  </si>
+  <si>
+    <t>14/10/2020 , 16/10/2020 and 19/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020 and 23/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020,30/10/2020,02/11/2020,03/11/2020</t>
+  </si>
+  <si>
+    <t>04/11/2020 and 06/11/2020</t>
+  </si>
+  <si>
+    <t>API management &amp; Assessment -1</t>
+  </si>
+  <si>
+    <t>Security - Identity Management, SSO, oAuth, Cookies, JWT,ios security</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,6 +1547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,7 +1771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1971,6 +2019,43 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2252,7 +2337,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anoop Sethi" refreshedDate="44000.589081712962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="57" xr:uid="{DA9A8DF4-5B9F-48E1-8747-C0F7B00D59C0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:G58" sheet="Topics+Learning Links"/>
+    <worksheetSource ref="A2:G64" sheet="Topics+Learning Links"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Competency Area" numFmtId="0">
@@ -3310,20 +3395,20 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="90">
         <v>21.5</v>
@@ -3331,7 +3416,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="90">
         <v>3</v>
@@ -3339,7 +3424,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="90">
         <v>138</v>
@@ -3347,7 +3432,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="90">
         <v>162.5</v>
@@ -3360,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3384,7 +3469,7 @@
     </row>
     <row r="2" spans="1:15" s="74" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>19</v>
@@ -3393,24 +3478,24 @@
         <v>110</v>
       </c>
       <c r="D2" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="73" t="s">
-        <v>241</v>
-      </c>
       <c r="F2" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="73" t="s">
-        <v>146</v>
-      </c>
       <c r="O2" s="75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>131</v>
@@ -3418,7 +3503,7 @@
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -3426,33 +3511,33 @@
     </row>
     <row r="4" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>130</v>
@@ -3464,21 +3549,21 @@
         <v>246</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>118</v>
@@ -3487,24 +3572,24 @@
         <v>6</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>132</v>
@@ -3516,32 +3601,32 @@
       <c r="G7" s="51"/>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="77">
-        <v>6</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>248</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>247</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>135</v>
@@ -3550,678 +3635,663 @@
         <v>2</v>
       </c>
       <c r="D9" s="92">
-        <v>44084</v>
+        <v>44097</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="103" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="99">
+        <v>2</v>
+      </c>
+      <c r="D10" s="100">
+        <v>44099</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+    </row>
+    <row r="11" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>113</v>
-      </c>
-      <c r="C10" s="77">
-        <v>6</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="C11" s="77">
         <v>6</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>250</v>
+      <c r="D11" s="92" t="s">
+        <v>253</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="103" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="97"/>
+      <c r="B12" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100">
+        <v>44105</v>
+      </c>
+      <c r="E12" s="99"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="107"/>
+    </row>
+    <row r="13" spans="1:15" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="77">
+        <v>6</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C14" s="77">
         <v>6</v>
       </c>
-      <c r="D12" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="39" t="s">
+      <c r="D14" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" s="77">
-        <v>4</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="77">
-        <v>8</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>136</v>
       </c>
       <c r="C15" s="77">
         <v>4</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="93" t="s">
+        <v>263</v>
+      </c>
       <c r="E15" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>116</v>
+        <v>194</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="C16" s="77">
-        <v>4</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>243</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>264</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="77">
-        <v>8</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="103" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="97"/>
+      <c r="B17" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="105">
+        <v>44134</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C18" s="77">
         <v>4</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="94" t="s">
+        <v>265</v>
+      </c>
       <c r="E18" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C19" s="77">
         <v>4</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="77" t="s">
+        <v>242</v>
+      </c>
       <c r="E19" s="77" t="s">
         <v>242</v>
       </c>
       <c r="F19" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="77">
+        <v>8</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="77">
+        <v>4</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="77">
-        <v>2</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-    </row>
-    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="77">
-        <v>3</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" s="103" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="97"/>
+      <c r="B22" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100">
+        <v>44150</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="108"/>
+    </row>
+    <row r="23" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C23" s="77">
         <v>4</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="92" t="s">
+        <v>249</v>
+      </c>
       <c r="E23" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="77">
+        <v>2</v>
+      </c>
+      <c r="D24" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="77">
-        <v>16</v>
-      </c>
-      <c r="D24" s="77"/>
       <c r="E24" s="77" t="s">
         <v>242</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="77">
-        <v>8</v>
-      </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C26" s="77">
-        <v>2</v>
-      </c>
-      <c r="D26" s="92"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>250</v>
+      </c>
       <c r="E26" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C27" s="77">
         <v>4</v>
       </c>
-      <c r="D27" s="92"/>
+      <c r="D27" s="92" t="s">
+        <v>251</v>
+      </c>
       <c r="E27" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>147</v>
+        <v>241</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>125</v>
+        <v>194</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="C28" s="77">
-        <v>4</v>
-      </c>
-      <c r="D28" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>252</v>
+      </c>
       <c r="E28" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>120</v>
+        <v>194</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="C29" s="77">
-        <v>2</v>
-      </c>
-      <c r="D29" s="92"/>
+        <v>8</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>255</v>
+      </c>
       <c r="E29" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="77">
-        <v>4</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="77">
-        <v>2</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>172</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="103" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
+      <c r="B30" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100">
+        <v>44189</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="106"/>
+    </row>
+    <row r="31" spans="1:7" s="103" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
+      <c r="B31" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="106"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C32" s="77">
         <v>2</v>
       </c>
       <c r="D32" s="92"/>
       <c r="E32" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="77">
+        <v>4</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="77">
+        <v>4</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="77">
+        <v>2</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="77">
+        <v>4</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="77">
+        <v>2</v>
+      </c>
+      <c r="D37" s="92"/>
+      <c r="E37" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="77">
+        <v>2</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="77">
+        <v>8</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="84"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="77">
-        <v>8</v>
-      </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="84"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="79">
-        <f>SUM(C37:C40)</f>
+      <c r="B42" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="79">
+        <f>SUM(C43:C46)</f>
         <v>3</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="80">
-        <v>1.5</v>
-      </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="81">
-        <f>SUM(C42:C44)</f>
-        <v>5</v>
-      </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="66"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42" s="80">
-        <v>3</v>
-      </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>219</v>
-      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="61" t="s">
         <v>196</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>202</v>
       </c>
       <c r="C43" s="80">
         <v>0.5</v>
@@ -4229,18 +4299,18 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="65" t="s">
         <v>215</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C44" s="80">
         <v>1.5</v>
@@ -4248,133 +4318,133 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="65" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" s="81">
-        <f>SUM(C46:C50)</f>
-        <v>8.5</v>
-      </c>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="66"/>
+      <c r="A45" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C46" s="80">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="80">
-        <v>2</v>
-      </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="65" t="s">
-        <v>218</v>
-      </c>
+      <c r="A47" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="81">
+        <f>SUM(C48:C50)</f>
+        <v>5</v>
+      </c>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C48" s="80">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C49" s="80">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G49" s="65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C50" s="80">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="65" t="s">
         <v>215</v>
-      </c>
-      <c r="G50" s="65" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C51" s="81">
-        <f>SUM(C52:C53)</f>
-        <v>1</v>
+        <f>SUM(C52:C56)</f>
+        <v>8.5</v>
       </c>
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
@@ -4383,83 +4453,86 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C52" s="80">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C53" s="80">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="G53" s="65" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="80">
+        <v>2</v>
+      </c>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="30" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="82">
-        <v>4</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="51" t="s">
+      <c r="G55" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="66" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="91">
-        <f>SUM(C56:C58)</f>
-        <v>3</v>
-      </c>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C56" s="80">
         <v>1</v>
@@ -4467,48 +4540,156 @@
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
       <c r="F56" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="81">
+        <f>SUM(C58:C59)</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="66"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" s="65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" s="65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="82">
+        <v>4</v>
+      </c>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="91">
+        <f>SUM(C62:C64)</f>
+        <v>3</v>
+      </c>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="66"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="80">
+        <v>1</v>
+      </c>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="80">
+        <v>1</v>
+      </c>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G63" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="G56" s="65" t="s">
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="67" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="80">
+      <c r="C64" s="83">
         <v>1</v>
       </c>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="G57" s="65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="B58" s="67" t="s">
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="83">
-        <v>1</v>
-      </c>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="69" t="s">
-        <v>218</v>
+      <c r="G64" s="69" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4517,26 +4698,26 @@
     <hyperlink ref="G5" r:id="rId2" xr:uid="{3F3DFAF4-4C80-4C09-94E5-5F35017E415B}"/>
     <hyperlink ref="G8" r:id="rId3" display="https://microservices.io/patterns/microservices.html_x000a__x000a_" xr:uid="{9A2A1F73-51CB-4160-865E-6C06171438BF}"/>
     <hyperlink ref="G9" r:id="rId4" xr:uid="{4BB066B5-B68C-488F-8B28-0A09C9ABAF37}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{8305810B-BC3C-438F-B4D8-BD7148EC8885}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{DD7FC0FA-F2C0-47E9-B8E8-E5986E7BACB6}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{BD3B6730-E396-466F-B483-DEA26CA3C97D}"/>
-    <hyperlink ref="G16" r:id="rId8" xr:uid="{8962B959-7AE1-4680-9DA0-9EAB8780DA21}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{03442E2D-46BE-4FC8-91DC-67B75A9140B8}"/>
-    <hyperlink ref="G19" r:id="rId10" xr:uid="{E6D478F8-FA43-4662-9E32-D245240940A0}"/>
-    <hyperlink ref="G22" r:id="rId11" xr:uid="{8BA72FDF-0E98-4935-A2EB-8C7D8EC38428}"/>
-    <hyperlink ref="G23" r:id="rId12" xr:uid="{3750D508-2AEC-4F54-8DBC-F6394C542E42}"/>
-    <hyperlink ref="G24" r:id="rId13" xr:uid="{4024D1DE-02AD-4E28-B3D5-001C42B51B33}"/>
-    <hyperlink ref="G26" r:id="rId14" xr:uid="{54982798-DBF3-447B-A79F-C00650A01727}"/>
-    <hyperlink ref="G27" r:id="rId15" location="v=onepage&amp;q=cloud%20Message%20components&amp;f=false" display="https://books.google.co.in/books?id=bHteDwAAQBAJ&amp;pg=PA187&amp;lpg=PA187&amp;dq=cloud+Message+components&amp;source=bl&amp;ots=9CXChG-3Vz&amp;sig=ACfU3U2Q5A-R1zIzd6ItgmWhPwPMnBqKqg&amp;hl=ta&amp;sa=X&amp;ved=2ahUKEwiCitWLsPDpAhVLzDgGHUQzDFM4ChDoATABegQICBAB#v=onepage&amp;q=cloud%20Message%20components&amp;f=false" xr:uid="{80C4844C-4A8C-4DC8-8B2F-742B312775D2}"/>
-    <hyperlink ref="G29" r:id="rId16" xr:uid="{BA37F0C0-0562-43A5-A581-3C61971E8F00}"/>
-    <hyperlink ref="G32" r:id="rId17" xr:uid="{BAB5226A-6A67-4A06-AA0F-F7F10FA219D9}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{8305810B-BC3C-438F-B4D8-BD7148EC8885}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{DD7FC0FA-F2C0-47E9-B8E8-E5986E7BACB6}"/>
+    <hyperlink ref="G18" r:id="rId7" xr:uid="{BD3B6730-E396-466F-B483-DEA26CA3C97D}"/>
+    <hyperlink ref="G19" r:id="rId8" xr:uid="{8962B959-7AE1-4680-9DA0-9EAB8780DA21}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{03442E2D-46BE-4FC8-91DC-67B75A9140B8}"/>
+    <hyperlink ref="G23" r:id="rId10" xr:uid="{E6D478F8-FA43-4662-9E32-D245240940A0}"/>
+    <hyperlink ref="G26" r:id="rId11" xr:uid="{8BA72FDF-0E98-4935-A2EB-8C7D8EC38428}"/>
+    <hyperlink ref="G27" r:id="rId12" xr:uid="{3750D508-2AEC-4F54-8DBC-F6394C542E42}"/>
+    <hyperlink ref="G28" r:id="rId13" xr:uid="{4024D1DE-02AD-4E28-B3D5-001C42B51B33}"/>
+    <hyperlink ref="G32" r:id="rId14" xr:uid="{54982798-DBF3-447B-A79F-C00650A01727}"/>
+    <hyperlink ref="G33" r:id="rId15" location="v=onepage&amp;q=cloud%20Message%20components&amp;f=false" display="https://books.google.co.in/books?id=bHteDwAAQBAJ&amp;pg=PA187&amp;lpg=PA187&amp;dq=cloud+Message+components&amp;source=bl&amp;ots=9CXChG-3Vz&amp;sig=ACfU3U2Q5A-R1zIzd6ItgmWhPwPMnBqKqg&amp;hl=ta&amp;sa=X&amp;ved=2ahUKEwiCitWLsPDpAhVLzDgGHUQzDFM4ChDoATABegQICBAB#v=onepage&amp;q=cloud%20Message%20components&amp;f=false" xr:uid="{80C4844C-4A8C-4DC8-8B2F-742B312775D2}"/>
+    <hyperlink ref="G35" r:id="rId16" xr:uid="{BA37F0C0-0562-43A5-A581-3C61971E8F00}"/>
+    <hyperlink ref="G38" r:id="rId17" xr:uid="{BAB5226A-6A67-4A06-AA0F-F7F10FA219D9}"/>
     <hyperlink ref="G6" r:id="rId18" display="https://www.oodesign.com/" xr:uid="{ACD15AAC-A890-4C64-A58F-3002D040E7B3}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{8553FCFE-566E-4CF1-AC12-382E7961C4B4}"/>
-    <hyperlink ref="G25" r:id="rId20" xr:uid="{563DCD1B-FEF1-479B-80EB-745C1593849C}"/>
-    <hyperlink ref="G28" r:id="rId21" xr:uid="{B89D0B5D-C586-425A-BD21-46F41CD63BF2}"/>
-    <hyperlink ref="G30" r:id="rId22" xr:uid="{991272CA-573F-4A1E-8C17-0C0CD6C8680C}"/>
-    <hyperlink ref="G31" r:id="rId23" xr:uid="{13CCC7C0-51DE-4217-AC97-D7982487B048}"/>
-    <hyperlink ref="G11" r:id="rId24" xr:uid="{B4F6B231-FC7F-4081-8E53-69FFB1128C8F}"/>
+    <hyperlink ref="G14" r:id="rId19" xr:uid="{8553FCFE-566E-4CF1-AC12-382E7961C4B4}"/>
+    <hyperlink ref="G29" r:id="rId20" xr:uid="{563DCD1B-FEF1-479B-80EB-745C1593849C}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{B89D0B5D-C586-425A-BD21-46F41CD63BF2}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{991272CA-573F-4A1E-8C17-0C0CD6C8680C}"/>
+    <hyperlink ref="G37" r:id="rId23" xr:uid="{13CCC7C0-51DE-4217-AC97-D7982487B048}"/>
+    <hyperlink ref="G13" r:id="rId24" xr:uid="{B4F6B231-FC7F-4081-8E53-69FFB1128C8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId25"/>
@@ -4556,10 +4737,10 @@
   <sheetData>
     <row r="2" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="C2" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M2" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="3:13" ht="33" x14ac:dyDescent="0.3">
@@ -4568,12 +4749,12 @@
     </row>
     <row r="4" spans="3:13" ht="24.6" x14ac:dyDescent="0.3">
       <c r="C4" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C5" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4584,67 +4765,67 @@
     </row>
     <row r="9" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="24.6" x14ac:dyDescent="0.3">
       <c r="C14" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="24.6" x14ac:dyDescent="0.3">
       <c r="C19" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C21" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4655,32 +4836,32 @@
     </row>
     <row r="25" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C29" s="54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="3:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C30" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5957,10 +6138,10 @@
       <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="96" t="s">
+      <c r="D55" s="109" t="s">
         <v>46</v>
       </c>
       <c r="E55" s="13"/>
@@ -5980,8 +6161,8 @@
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -5999,8 +6180,8 @@
       <c r="B57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -6018,8 +6199,8 @@
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -6037,8 +6218,8 @@
       <c r="B59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -6056,8 +6237,8 @@
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
@@ -6075,8 +6256,8 @@
       <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
